--- a/cypress/results/consolidated_cypress_results.xlsx
+++ b/cypress/results/consolidated_cypress_results.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Spec File</t>
   </si>
@@ -19,6 +19,9 @@
     <t>Page Name</t>
   </si>
   <si>
+    <t>Link Text</t>
+  </si>
+  <si>
     <t>Total Tests</t>
   </si>
   <si>
@@ -37,10 +40,13 @@
     <t>master</t>
   </si>
   <si>
-    <t>personalInsurance_quote.csv</t>
-  </si>
-  <si>
     <t>personalInsurance_link.csv</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>On Your Side® Review</t>
   </si>
 </sst>
 </file>
@@ -417,14 +423,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="2" width="30" customWidth="1"/>
-    <col min="3" max="7" width="15" customWidth="1"/>
+    <col min="1" max="3" width="30" customWidth="1"/>
+    <col min="4" max="8" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -446,50 +452,59 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>8</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3">
-        <v>1</v>
+      <c r="C3" t="s">
+        <v>11</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>0</v>
       </c>
     </row>
